--- a/Documentacao/Backlog/backlog.xlsx
+++ b/Documentacao/Backlog/backlog.xlsx
@@ -1,26 +1,253 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\1 - Documentos\2 - Acessos\Desktop\Projetos\Projeto Individual\Solomons\Documentacao\Backlog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5FD192-3477-489B-9005-5B646759BE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Banco de Dados" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$B$3:$H$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
+  <si>
+    <t>BACKLOG</t>
+  </si>
+  <si>
+    <t>REQUISITOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIÇÃO </t>
+  </si>
+  <si>
+    <t>CLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>TAMANHO</t>
+  </si>
+  <si>
+    <t>PRIORIDADE</t>
+  </si>
+  <si>
+    <t>SPRINT</t>
+  </si>
+  <si>
+    <t>Projeto criado e configurado no GitHub</t>
+  </si>
+  <si>
+    <t>LOCAÇÃO DOS ELEMENTOS DO PROJETO EM UM REPOSITÓRIO NO GITHUB</t>
+  </si>
+  <si>
+    <t>ESSENCIAL</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Documentação do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRIAÇÃO DE DOCUMENTAÇÃO PARA ORGANIZAÇÃO E DEFINIÇÃO DE TÓPICOS DO PROJETO </t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Visão de Negócio (Diagrama)</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE DIAGRAMA DE VISÃO DE NEGÓCIO, COM OBJETIVO DE COMPREENDER O FUNCIONAMENTO DO PROJETO DE FORMA VISUAL</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Protótipo do Site Institucional</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE PROTÓTIPO DO SITE INSTITUCIONAL PARA APRESENTAR AO CLIENTE</t>
+  </si>
+  <si>
+    <t>Ferramenta de Gestão de Projeto configurada</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÃO DE TODOS OS ENTREGÁVEIS NO TRELLO</t>
+  </si>
+  <si>
+    <t>Requisitos populados na ferramenta</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DO BACKLOG</t>
+  </si>
+  <si>
+    <t>Linux instalado na VM Local</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO E CONFIGURAÇÃO DE MÁQUINA VIRTUAL PARA HOSPEDAGEM E TESTES DO SOFTWARE</t>
+  </si>
+  <si>
+    <t>PROJETO ATUALIZADO NO GITHUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJETO EM CONSTANTE ATUALIZAÇÃO </t>
+  </si>
+  <si>
+    <t>PLANILHA DE RISCO</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE PLANILHA DE RISCOS JUNTAMENTE COM GRÁFICO DE BURNDOWN</t>
+  </si>
+  <si>
+    <t>ESPECIFICAÇÃO DE DASHBOARD</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE UMA DASHBOARD ESTÁTICA</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE SOLUÇÃO</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE DIAGRAMA DE SOLUÇÃO PARA COMPREENSÃO DO FUNCIONAMENTO COMPLETO DO SOFTWARE</t>
+  </si>
+  <si>
+    <t>SCRIPT DE CRIAÇÃO DE BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DO SCRIPT DE BANCO DE DADOS PARA RECEPÇÃO DE DADOS DO SITE E SENSORES</t>
+  </si>
+  <si>
+    <t>Instalar MYSQL na VMLinux e inserção de dados do Arduíno no MySQL na mesma máquina</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO E CONFIGURAÇÃO DO SGBD WORKBENCH MYSQL NA MÁQUINA VIRTUAL</t>
+  </si>
+  <si>
+    <t>DESEJÁVEL</t>
+  </si>
+  <si>
+    <t>A DEFINIR</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica e script SQL server</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE MODELAGEM DEFINITIVA DO PROJETO</t>
+  </si>
+  <si>
+    <t>Fluxograma de suporte</t>
+  </si>
+  <si>
+    <t>Ferramenta de Help desk</t>
+  </si>
+  <si>
+    <t>Site institucional funcional</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE SITE INSTITUCIONAL EM HTML/CSS/JS FUNCIONAL</t>
+  </si>
+  <si>
+    <t>Dashboard funcional</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO E CONFIGURAÇÃO DE UMA DASHBOARD FUNCIONAL</t>
+  </si>
+  <si>
+    <t>Pagina de login e cadastro funcional</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO DE PÁGINA DE LOGIN E CADASTRO FUNCIONAL</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>A realizar</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>IMPORTANTE</t>
+  </si>
+  <si>
+    <t>Realizando</t>
+  </si>
+  <si>
+    <t>SEMANA 1</t>
+  </si>
+  <si>
+    <t>SEMANA 2</t>
+  </si>
+  <si>
+    <t>SEMANA 3</t>
+  </si>
+  <si>
+    <t>SEMANA 4</t>
+  </si>
+  <si>
+    <t>TABELA DE BURNDOWN</t>
+  </si>
+  <si>
+    <t>ETAPAS</t>
+  </si>
+  <si>
+    <t>PLANEJADO</t>
+  </si>
+  <si>
+    <t>REALIZADO</t>
+  </si>
+  <si>
+    <t>DASHBOARD</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +255,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,17 +312,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +527,944 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Backlog!$K$4:$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SEMANA 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SEMANA 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SEMANA 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SEMANA 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Backlog!$L$4:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A6B-418E-BEA2-4EC69E0BBDC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Backlog!$K$4:$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SEMANA 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SEMANA 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SEMANA 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SEMANA 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Backlog!$M$4:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A6B-418E-BEA2-4EC69E0BBDC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1945100320"/>
+        <c:axId val="1945096960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1945100320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1945096960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1945096960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1945100320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE1F2C6-6464-BDD0-DB9C-1CF8477DBA89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1729,848 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="122.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.21875" customWidth="1"/>
+    <col min="15" max="21" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="O2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4">
+        <f>IF(E4="PP",3,IF(E4="P",5,IF(E4="M",8,IF(E4="G",13,21))))</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="1">
+        <f>SUMIF(H4:H22, "SEMANA 1", F4:F22)</f>
+        <v>39</v>
+      </c>
+      <c r="M4" s="1">
+        <f>SUMIFS($F$4:$F$22,$H$4:$H$22,"SEMANA 1",$I$4:$I$22,"Realizado")</f>
+        <v>5</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="14"/>
+    </row>
+    <row r="5" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F22" si="0">IF(E5="PP",3,IF(E5="P",5,IF(E5="M",8,IF(E5="G",13,21))))</f>
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="1">
+        <f>SUMIF(H5:H23, "SEMANA 2", F5:F23)</f>
+        <v>26</v>
+      </c>
+      <c r="M5" s="1">
+        <f>SUMIFS($F$4:$F$22,$H$4:$H$22,"SEMANA 2",$I$4:$I$22,"Realizado")</f>
+        <v>10</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SUMIF(H6:H24, "SEMANA 3", F6:F24)</f>
+        <v>45</v>
+      </c>
+      <c r="M6" s="1">
+        <f>SUMIFS($F$4:$F$22,$H$4:$H$22,"SEMANA 3",$I$4:$I$22,"Realizado")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUMIF(H7:H25, "SEMANA 4", F7:F25)</f>
+        <v>76</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUMIFS($F$4:$F$22,$H$4:$H$22,"SEMANA 4",$I$4:$I$22,"Realizado")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="14"/>
+    </row>
+    <row r="12" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="14"/>
+    </row>
+    <row r="15" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="17"/>
+    </row>
+    <row r="16" spans="2:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B3:H3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:U2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I4:I22">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="A realizar">
+      <formula>NOT(ISERROR(SEARCH("A realizar",I4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Realizado">
+      <formula>NOT(ISERROR(SEARCH("Realizado",I4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Realizando">
+      <formula>NOT(ISERROR(SEARCH("Realizando",I4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1EF4985-D70E-4F24-A874-798C93768EE9}">
+          <x14:formula1>
+            <xm:f>'Banco de Dados'!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I4:I22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ABD2E8E3-9567-4CB4-B4B8-8094571C21F2}">
+          <x14:formula1>
+            <xm:f>'Banco de Dados'!$D$2:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E70A555-C656-4B10-82DB-BAAA7BEA33EC}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>